--- a/public/market.xlsx
+++ b/public/market.xlsx
@@ -15,9 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
-    <t>いいね数</t>
+    <t>いいねしたユーザー</t>
+  </si>
+  <si>
+    <t>性別</t>
+  </si>
+  <si>
+    <t>年齢</t>
+  </si>
+  <si>
+    <t>都道府県</t>
   </si>
 </sst>
 </file>
@@ -357,7 +366,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -365,9 +374,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
